--- a/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,37 +22,55 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
     <t>519613</t>
   </si>
   <si>
+    <t>519615</t>
+  </si>
+  <si>
     <t>519614</t>
   </si>
   <si>
-    <t>519615</t>
-  </si>
-  <si>
     <t>银河君尚灵活配置混合A</t>
   </si>
   <si>
+    <t>银河君尚灵活配置混合I</t>
+  </si>
+  <si>
     <t>银河君尚灵活配置混合C</t>
   </si>
   <si>
-    <t>银河君尚灵活配置混合I</t>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>0.06</t>
   </si>
   <si>
     <t>28.97</t>
   </si>
   <si>
     <t>0.71</t>
+  </si>
+  <si>
+    <t>0.0430</t>
+  </si>
+  <si>
+    <t>0.0004</t>
   </si>
 </sst>
 </file>
@@ -410,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,64 +450,88 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>519613</t>
-  </si>
-  <si>
-    <t>519615</t>
-  </si>
-  <si>
-    <t>519614</t>
-  </si>
-  <si>
-    <t>银河君尚灵活配置混合A</t>
-  </si>
-  <si>
-    <t>银河君尚灵活配置混合I</t>
-  </si>
-  <si>
-    <t>银河君尚灵活配置混合C</t>
-  </si>
-  <si>
-    <t>6.05</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>28.97</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.0430</t>
-  </si>
-  <si>
-    <t>0.0004</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,115 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>232.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.0851</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>173.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7118</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.7445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>143.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.4842</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>192.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.9839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.6424</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.0210</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>121.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.5566</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1236</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2988</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2763</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.12</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>183.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.7817</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.6</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.0203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,439 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.5646</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.7847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4157</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43.55</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>149.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.12</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.5775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33.6</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.7487</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2011,13 +2098,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.6257</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1049</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4168</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2369,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2380,17 +2381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2400,14 +2421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.27</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.3935</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2416,14 +2459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.55</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.5798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2432,14 +2497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>37.12</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>119.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.5637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2448,14 +2535,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>33.6</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>102.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>10.5956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2464,13 +2573,1075 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012079</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.7026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9477</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6797</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4561</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.09</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/601127-小康股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519615</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合I</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519614</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河君尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>37.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -687,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>232.88</t>
+          <t>161.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>95.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11.0851</t>
+          <t>17.3935</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -715,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005911</t>
+          <t>162703</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发双擎升级混合A</t>
+          <t>广发小盘成长混合(LOF)A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>173.30</t>
+          <t>116.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.7118</t>
+          <t>12.5798</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -753,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>162703</t>
+          <t>005911</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发小盘成长混合(LOF)A</t>
+          <t>广发双擎升级混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>147.26</t>
+          <t>119.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.7445</t>
+          <t>12.5637</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -801,26 +763,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>143.14</t>
+          <t>102.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.84</t>
+          <t>95.35</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.4842</t>
+          <t>10.5956</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -829,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>012079</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>信达澳银新能源精选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.51</t>
+          <t>58.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>94.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>9.70</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8994</t>
+          <t>5.7026</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -867,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009314</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发双擎升级混合C</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>21.86</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>95.03</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2710</t>
+          <t>1.9477</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -905,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>8.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1968</t>
+          <t>1.9174</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -953,26 +915,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>6.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>92.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1406</t>
+          <t>0.6797</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -981,36 +943,792 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>516110</t>
+          <t>009314</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰中证800汽车与零部件ETF</t>
+          <t>广发双擎升级混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>96.56</t>
+          <t>94.92</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.4561</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2149</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1543</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1763,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1085,26 +1803,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>192.70</t>
+          <t>149.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>94.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.9839</t>
+          <t>9.2379</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1123,26 +1841,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>145.74</t>
+          <t>139.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.6424</t>
+          <t>8.5775</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1161,26 +1879,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>120.98</t>
+          <t>98.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.0210</t>
+          <t>7.7487</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1199,22 +1917,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>121.88</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7.5566</t>
+          <t>5.6257</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1237,26 +1955,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.83</t>
+          <t>22.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1236</t>
+          <t>1.1049</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1265,36 +1983,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>009132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发小盘成长混合(LOF)C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6.87</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.68</t>
+          <t>94.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2988</t>
+          <t>0.4168</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1303,36 +2021,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009314</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发双擎升级混合C</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2763</t>
+          <t>0.3067</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1341,32 +2059,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009132</t>
+          <t>009314</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发小盘成长混合(LOF)C</t>
+          <t>广发双擎升级混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1538</t>
+          <t>0.2240</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1379,36 +2097,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>516110</t>
+          <t>006692</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰中证800汽车与零部件ETF</t>
+          <t>金信消费升级股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>96.64</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0587</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1417,32 +2135,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>516870</t>
+          <t>006693</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+          <t>金信消费升级股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>96.78</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0065</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1955,7 +2673,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1995,26 +2713,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>149.48</t>
+          <t>192.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.86</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9.2379</t>
+          <t>10.9839</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2033,26 +2751,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>139.02</t>
+          <t>145.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.5775</t>
+          <t>8.6424</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2071,26 +2789,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.71</t>
+          <t>120.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7.7487</t>
+          <t>8.0210</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2109,22 +2827,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>121.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.6257</t>
+          <t>7.5566</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2147,26 +2865,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>22.01</t>
+          <t>25.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1049</t>
+          <t>1.1236</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2175,36 +2893,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009132</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发小盘成长混合(LOF)C</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4168</t>
+          <t>0.2988</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2213,36 +2931,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>009314</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发双擎升级混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>94.54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3067</t>
+          <t>0.2763</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2251,32 +2969,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009314</t>
+          <t>009132</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发双擎升级混合C</t>
+          <t>广发小盘成长混合(LOF)C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2240</t>
+          <t>0.1538</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2289,36 +3007,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006692</t>
+          <t>516110</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金信消费升级股票A</t>
+          <t>国泰中证800汽车与零部件ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>96.64</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0587</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -2327,32 +3045,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006693</t>
+          <t>516870</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金信消费升级股票C</t>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>96.78</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0065</t>
+          <t>0.0085</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2370,7 +3088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2391,7 +3109,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2431,26 +3149,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>161.20</t>
+          <t>232.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.19</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.79</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17.3935</t>
+          <t>11.0851</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2459,36 +3177,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162703</t>
+          <t>005911</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发小盘成长混合(LOF)A</t>
+          <t>广发双擎升级混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>116.05</t>
+          <t>173.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12.5798</t>
+          <t>7.7118</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2497,36 +3215,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005911</t>
+          <t>162703</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发双擎升级混合A</t>
+          <t>广发小盘成长混合(LOF)A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>119.54</t>
+          <t>147.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12.5637</t>
+          <t>6.7445</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2545,26 +3263,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>102.97</t>
+          <t>143.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.35</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.5956</t>
+          <t>6.4842</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2573,36 +3291,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012079</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银新能源精选混合型证券投资基金</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>58.79</t>
+          <t>19.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.70</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5.7026</t>
+          <t>0.8994</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2611,36 +3329,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>009314</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发双擎升级混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>6.09</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>95.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.9477</t>
+          <t>0.2710</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -2649,36 +3367,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.91</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.9174</t>
+          <t>0.1968</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2697,26 +3415,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>93.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6797</t>
+          <t>0.1406</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2725,792 +3443,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009314</t>
+          <t>516110</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发双擎升级混合C</t>
+          <t>国泰中证800汽车与零部件ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>96.56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.4561</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>167001</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>平安鼎泰灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2270</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
         <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501201</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2149</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010114</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝新兴成长混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1848</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009008</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>平安科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1543</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1021</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>013721</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>信达澳银景气优选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.55</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0621</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001339</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴银鼎新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.46</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0472</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009009</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>平安科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.52</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>167002</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>平安鼎越灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0406</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>013722</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>信达澳银景气优选混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>80.55</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>010665</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时高端装备混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>83.38</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006887</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>诺德新生活混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010666</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>博时高端装备混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>83.38</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>570006</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>诺德中小盘混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001849</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>前海开源强势共识100强等权重股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>166107</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>166108</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006888</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>诺德新生活混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3524,128 +3486,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.09</v>
+          <t>519613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33.27</v>
+          <t>519615</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.55</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>37.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.09</v>
+          <t>519614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>